--- a/tehseen.xlsx
+++ b/tehseen.xlsx
@@ -21,10 +21,10 @@
     <t>jdjjd</t>
   </si>
   <si>
-    <t>vsfs</t>
+    <t>dd</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>tehseen</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,10 +376,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tehseen.xlsx
+++ b/tehseen.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>jdjjd</t>
+    <t>tehseen</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>sdasda</t>
   </si>
   <si>
-    <t>tehseen</t>
+    <t>sdds</t>
   </si>
 </sst>
 </file>
@@ -366,20 +366,20 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
